--- a/medicine/Sexualité et sexologie/Pascal_De_Sutter/Pascal_De_Sutter.xlsx
+++ b/medicine/Sexualité et sexologie/Pascal_De_Sutter/Pascal_De_Sutter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal De Sutter, né le 31 mai 1963 à Bruxelles, est un psychologue belge.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études secondaires à Auderghem, il obtient un master en science de la famille et de la sexualité, un master en psychologie et sciences de l’éducation et un doctorat en psychologie à l’université catholique de Louvain. Il est le codirecteur du Certificat en sexologie clinique et professeur à la faculté de psychologie de l’Université catholique de Louvain. En 2017, il co-anime l'émission "Mariés au premier regard" avec des candidats belges diffusé sur RTL TVI et M6. Il co-anime également l'émission "Mariés au premier regard" avec des candidats français, diffusé sur M6 et RTL TVI[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires à Auderghem, il obtient un master en science de la famille et de la sexualité, un master en psychologie et sciences de l’éducation et un doctorat en psychologie à l’université catholique de Louvain. Il est le codirecteur du Certificat en sexologie clinique et professeur à la faculté de psychologie de l’Université catholique de Louvain. En 2017, il co-anime l'émission "Mariés au premier regard" avec des candidats belges diffusé sur RTL TVI et M6. Il co-anime également l'émission "Mariés au premier regard" avec des candidats français, diffusé sur M6 et RTL TVI,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec V. Doyen, Erection. Roman sexo-informatif, Odile Jacob, 2018
 Avec Julie du Chemin, Dieu aime le sexe, Boite à Pandore, 2018
